--- a/data/valuations/PANW.xlsx
+++ b/data/valuations/PANW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\projects\stock_val_streamlit\data\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F93AD4-5268-4222-ADF4-CD4ADD2289B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFABDDD-4A70-4574-99D6-3E3D60ED2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_val" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>E Operated Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">E Revenue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E EBITDA </t>
+    <t>E Revenue</t>
+  </si>
+  <si>
+    <t>E EBITDA</t>
   </si>
   <si>
     <t>E Dilution (5yr)</t>
@@ -642,8 +642,8 @@
   </sheetPr>
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
